--- a/Documentation/Load Cell Calibration.xlsx
+++ b/Documentation/Load Cell Calibration.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Samuel\workspace\METR4901\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E213817E-7CB7-4949-B467-0D5D62A0423C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56274B90-C35E-4C70-9E8A-737A61DC69E2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7483" windowHeight="2023" xr2:uid="{EE03B894-430C-46AD-B200-364D95B8C7CA}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Load Cell Calibration</t>
   </si>
@@ -124,6 +124,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Load Cell Calibration Data</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -132,26 +157,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -325,6 +330,494 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-67EB-4153-8B9D-F42D5F94F32B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="574879152"/>
+        <c:axId val="574875216"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="574879152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>ADC Reading (0-4096)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="574875216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="574875216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Mass</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> (g)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="574879152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A (Bot)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.8688705421160257E-2"/>
+                  <c:y val="-0.22231178766014537"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3260</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2575</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2450</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2325</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2175</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1910</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1775</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1620</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2450</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2950</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5FEE-402C-B37F-2BE2F8A8FD12}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>B (Top)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.16594995460446488"/>
+                  <c:y val="-0.17161609990600343"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$C$3:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>697</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>619</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>596</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>581</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>569</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>556</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>529</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2450</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2950</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5FEE-402C-B37F-2BE2F8A8FD12}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -483,7 +976,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -942,16 +1435,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>326570</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>57148</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>146956</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>78920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>430893</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>43542</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>251279</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>65313</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -973,6 +1466,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>157843</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>104323</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>144236</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{776BEC9B-3B06-4E04-ADE2-3B2009BED6A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1322,7 +1853,7 @@
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1331,6 +1862,9 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
@@ -1342,6 +1876,9 @@
       <c r="C2" t="s">
         <v>1</v>
       </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
       <c r="F2" t="str">
         <f>B2</f>
         <v>A (Bot)</v>
@@ -1379,6 +1916,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3">
+        <f>D3*1000</f>
         <v>0</v>
       </c>
       <c r="B3">
@@ -1386,6 +1924,9 @@
       </c>
       <c r="C3">
         <v>697</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="F3">
         <f>AVERAGE(L3:N3)</f>
@@ -1424,17 +1965,20 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>1</v>
+        <f t="shared" ref="A4:A29" si="0">D4*1000</f>
+        <v>1000</v>
       </c>
       <c r="B4">
         <v>2700</v>
       </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
       <c r="F4">
-        <f t="shared" ref="F4:F5" si="0">AVERAGE(L4:N4)</f>
+        <f t="shared" ref="F4:F5" si="1">AVERAGE(L4:N4)</f>
         <v>2522.6666666666665</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G12" si="1">A4*1000</f>
         <v>1000</v>
       </c>
       <c r="H4">
@@ -1442,7 +1986,7 @@
         <v>1441</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I12" si="3">G4</f>
+        <f t="shared" ref="I4:I5" si="3">G4</f>
         <v>1000</v>
       </c>
       <c r="L4">
@@ -1466,7 +2010,8 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>1.2</v>
+        <f t="shared" si="0"/>
+        <v>1200</v>
       </c>
       <c r="B5">
         <v>2575</v>
@@ -1474,8 +2019,11 @@
       <c r="C5">
         <v>625</v>
       </c>
+      <c r="D5">
+        <v>1.2</v>
+      </c>
       <c r="F5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1909.6666666666667</v>
       </c>
       <c r="G5">
@@ -1511,8 +2059,8 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6">
-        <f>A5+0.25</f>
-        <v>1.45</v>
+        <f t="shared" si="0"/>
+        <v>1450</v>
       </c>
       <c r="B6">
         <v>2450</v>
@@ -1520,11 +2068,15 @@
       <c r="C6">
         <v>619</v>
       </c>
+      <c r="D6">
+        <f>D5+0.25</f>
+        <v>1.45</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7">
-        <f t="shared" ref="A7:A28" si="4">A6+0.25</f>
-        <v>1.7</v>
+        <f t="shared" si="0"/>
+        <v>1700</v>
       </c>
       <c r="B7">
         <v>2325</v>
@@ -1532,11 +2084,15 @@
       <c r="C7">
         <v>596</v>
       </c>
+      <c r="D7">
+        <f t="shared" ref="D7:D28" si="4">D6+0.25</f>
+        <v>1.7</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8">
-        <f t="shared" si="4"/>
-        <v>1.95</v>
+        <f t="shared" si="0"/>
+        <v>1950</v>
       </c>
       <c r="B8">
         <v>2175</v>
@@ -1544,11 +2100,15 @@
       <c r="C8">
         <v>581</v>
       </c>
+      <c r="D8">
+        <f t="shared" si="4"/>
+        <v>1.95</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9">
-        <f t="shared" si="4"/>
-        <v>2.2000000000000002</v>
+        <f t="shared" si="0"/>
+        <v>2200</v>
       </c>
       <c r="B9">
         <v>2040</v>
@@ -1556,11 +2116,15 @@
       <c r="C9">
         <v>569</v>
       </c>
+      <c r="D9">
+        <f t="shared" si="4"/>
+        <v>2.2000000000000002</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10">
-        <f t="shared" si="4"/>
-        <v>2.4500000000000002</v>
+        <f t="shared" si="0"/>
+        <v>2450</v>
       </c>
       <c r="B10">
         <v>1910</v>
@@ -1568,11 +2132,15 @@
       <c r="C10">
         <v>556</v>
       </c>
+      <c r="D10">
+        <f t="shared" si="4"/>
+        <v>2.4500000000000002</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11">
-        <f t="shared" si="4"/>
-        <v>2.7</v>
+        <f t="shared" si="0"/>
+        <v>2700</v>
       </c>
       <c r="B11">
         <v>1775</v>
@@ -1580,11 +2148,15 @@
       <c r="C11">
         <v>544</v>
       </c>
+      <c r="D11">
+        <f t="shared" si="4"/>
+        <v>2.7</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12">
-        <f t="shared" si="4"/>
-        <v>2.95</v>
+        <f t="shared" si="0"/>
+        <v>2950</v>
       </c>
       <c r="B12">
         <v>1620</v>
@@ -1592,154 +2164,226 @@
       <c r="C12">
         <v>529</v>
       </c>
+      <c r="D12">
+        <f t="shared" si="4"/>
+        <v>2.95</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13">
-        <f t="shared" si="4"/>
-        <v>3.2</v>
+        <f t="shared" si="0"/>
+        <v>3200</v>
       </c>
       <c r="B13">
         <v>1500</v>
       </c>
+      <c r="D13">
+        <f t="shared" si="4"/>
+        <v>3.2</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14">
-        <f t="shared" si="4"/>
-        <v>3.45</v>
+        <f t="shared" si="0"/>
+        <v>3450</v>
       </c>
       <c r="B14">
         <v>1390</v>
       </c>
+      <c r="D14">
+        <f t="shared" si="4"/>
+        <v>3.45</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15">
-        <f t="shared" si="4"/>
-        <v>3.7</v>
+        <f t="shared" si="0"/>
+        <v>3700</v>
       </c>
       <c r="B15">
         <v>1245</v>
       </c>
+      <c r="D15">
+        <f t="shared" si="4"/>
+        <v>3.7</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16">
-        <f t="shared" si="4"/>
-        <v>3.95</v>
+        <f t="shared" si="0"/>
+        <v>3950</v>
       </c>
       <c r="B16">
         <v>1130</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="D16">
+        <f t="shared" si="4"/>
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17">
-        <f t="shared" si="4"/>
-        <v>4.2</v>
+        <f t="shared" si="0"/>
+        <v>4200</v>
       </c>
       <c r="B17">
         <v>1000</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="D17">
+        <f t="shared" si="4"/>
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18">
-        <f t="shared" si="4"/>
-        <v>4.45</v>
+        <f t="shared" si="0"/>
+        <v>4450</v>
       </c>
       <c r="B18">
         <v>875</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="D18">
+        <f t="shared" si="4"/>
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19">
-        <f t="shared" si="4"/>
-        <v>4.7</v>
+        <f t="shared" si="0"/>
+        <v>4700</v>
       </c>
       <c r="B19">
         <v>730</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="D19">
+        <f t="shared" si="4"/>
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20">
-        <f t="shared" si="4"/>
-        <v>4.95</v>
+        <f t="shared" si="0"/>
+        <v>4950</v>
       </c>
       <c r="B20">
         <v>620</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="D20">
+        <f t="shared" si="4"/>
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21">
-        <f t="shared" si="4"/>
-        <v>5.2</v>
+        <f t="shared" si="0"/>
+        <v>5200</v>
       </c>
       <c r="B21">
         <v>490</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="D21">
+        <f t="shared" si="4"/>
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22">
-        <f t="shared" si="4"/>
-        <v>5.45</v>
+        <f t="shared" si="0"/>
+        <v>5450</v>
       </c>
       <c r="B22">
         <v>380</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="D22">
+        <f t="shared" si="4"/>
+        <v>5.45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23">
-        <f t="shared" si="4"/>
-        <v>5.7</v>
+        <f t="shared" si="0"/>
+        <v>5700</v>
       </c>
       <c r="B23">
         <v>270</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="D23">
+        <f t="shared" si="4"/>
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24">
-        <f t="shared" si="4"/>
-        <v>5.95</v>
+        <f t="shared" si="0"/>
+        <v>5950</v>
       </c>
       <c r="B24">
         <v>230</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="D24">
+        <f t="shared" si="4"/>
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25">
-        <f t="shared" si="4"/>
-        <v>6.2</v>
+        <f t="shared" si="0"/>
+        <v>6200</v>
       </c>
       <c r="B25">
         <v>200</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="D25">
+        <f t="shared" si="4"/>
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26">
-        <f t="shared" si="4"/>
-        <v>6.45</v>
+        <f t="shared" si="0"/>
+        <v>6450</v>
       </c>
       <c r="B26">
         <v>190</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="D26">
+        <f t="shared" si="4"/>
+        <v>6.45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27">
-        <f t="shared" si="4"/>
-        <v>6.7</v>
+        <f t="shared" si="0"/>
+        <v>6700</v>
       </c>
       <c r="B27">
         <v>180</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="D27">
+        <f t="shared" si="4"/>
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28">
-        <f t="shared" si="4"/>
-        <v>6.95</v>
+        <f t="shared" si="0"/>
+        <v>6950</v>
       </c>
       <c r="B28">
         <v>170</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="D28">
+        <f t="shared" si="4"/>
+        <v>6.95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29">
-        <f>A28-A5</f>
+        <f t="shared" si="0"/>
+        <v>5750</v>
+      </c>
+      <c r="D29">
+        <f>D28-D5</f>
         <v>5.75</v>
       </c>
     </row>
@@ -1857,7 +2501,7 @@
         <v>1200</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H4:H12" si="3">C5</f>
+        <f t="shared" ref="H5:H12" si="3">C5</f>
         <v>625</v>
       </c>
       <c r="I5">
